--- a/AccessSheet.xlsx
+++ b/AccessSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +420,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -437,13 +437,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -454,16 +454,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -471,237 +471,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
         <v>6</v>
-      </c>
-      <c r="B8">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>69</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
